--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF0F1B-8B0A-475A-B5A3-AC8DB4B2B822}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95402544-4357-4348-991F-9F5104BE6197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE5B82E-22B4-479A-B922-D3247FDEB95C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE5B82E-22B4-479A-B922-D3247FDEB95C}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTable" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>1-1장비드랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <t>conditionId|string!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemId_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,9 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59F134E-4109-43B8-B03B-E5DE898C01D3}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -497,7 +507,7 @@
     <col min="6" max="7" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -519,8 +529,14 @@
       <c r="G1" t="s">
         <v>14</v>
       </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -537,7 +553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>50001</v>
       </c>
@@ -554,7 +570,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30001</v>
       </c>
@@ -577,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>70001</v>
       </c>
@@ -597,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>90001</v>
       </c>

--- a/Excel/작업Gacha.xlsx
+++ b/Excel/작업Gacha.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNoname\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95402544-4357-4348-991F-9F5104BE6197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83D4AC-CDA1-48F8-BD3C-098D80DEB9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0FE5B82E-22B4-479A-B922-D3247FDEB95C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0FE5B82E-22B4-479A-B922-D3247FDEB95C}"/>
   </bookViews>
   <sheets>
     <sheet name="GachaTable" sheetId="1" r:id="rId1"/>
+    <sheet name="가챠종류" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>1-1장비드랍</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +131,94 @@
   </si>
   <si>
     <t>weight_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭3가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭10가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비1가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비5가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리진가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지별 장비드랍가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금열쇠제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환원가챠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별상점 임의등급 캐릭터/장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설캐릭터는 분산이 너무 커지지 않도록 제한한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~3까지 공유하여 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설은 내부 티어에 횟수 제한이 걸려있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59F134E-4109-43B8-B03B-E5DE898C01D3}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -634,4 +724,155 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA09C4EB-4988-4F5D-A601-E59CE94B5057}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="50.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>